--- a/Code/Results/Cases/Case_2_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.15909908622474</v>
+        <v>20.10254410228201</v>
       </c>
       <c r="C2">
-        <v>13.18730370155084</v>
+        <v>9.890833230244272</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.194918690605631</v>
+        <v>14.36426845683459</v>
       </c>
       <c r="F2">
-        <v>31.38993374092127</v>
+        <v>41.44786610073778</v>
       </c>
       <c r="G2">
-        <v>37.79922794052798</v>
+        <v>43.35808356879687</v>
       </c>
       <c r="H2">
-        <v>11.86275451317998</v>
+        <v>17.74606095788246</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.197243561878794</v>
+        <v>8.544658145475138</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.223904187528401</v>
+        <v>12.30421110837015</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.48359725508528</v>
+        <v>19.61917466871718</v>
       </c>
       <c r="C3">
-        <v>12.51276095926936</v>
+        <v>9.596634703073315</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.172983256879984</v>
+        <v>14.38288654230258</v>
       </c>
       <c r="F3">
-        <v>30.56451708191675</v>
+        <v>41.46010470586681</v>
       </c>
       <c r="G3">
-        <v>36.54812541559407</v>
+        <v>43.32113652590436</v>
       </c>
       <c r="H3">
-        <v>11.78791788285137</v>
+        <v>17.80225474590215</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.292715578078315</v>
+        <v>8.571670516551224</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.951875963648254</v>
+        <v>12.2787717290679</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44405998067665</v>
+        <v>19.32026502154306</v>
       </c>
       <c r="C4">
-        <v>12.08146102623074</v>
+        <v>9.409686018749261</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.161941115221545</v>
+        <v>14.39554085439247</v>
       </c>
       <c r="F4">
-        <v>30.08193208920982</v>
+        <v>41.47940035484071</v>
       </c>
       <c r="G4">
-        <v>35.82044200710655</v>
+        <v>43.31616473455267</v>
       </c>
       <c r="H4">
-        <v>11.75551383220432</v>
+        <v>17.84114128464582</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.352163815582084</v>
+        <v>8.589018950022027</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.783363244098113</v>
+        <v>12.26467696493445</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01623310401632</v>
+        <v>19.19810666058401</v>
       </c>
       <c r="C5">
-        <v>11.90146110292887</v>
+        <v>9.331984054616353</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.158041676578621</v>
+        <v>14.40100566945615</v>
       </c>
       <c r="F5">
-        <v>29.89142062515734</v>
+        <v>41.49021884706757</v>
       </c>
       <c r="G5">
-        <v>35.5341713283532</v>
+        <v>43.31857704508758</v>
       </c>
       <c r="H5">
-        <v>11.74555667484255</v>
+        <v>17.85808548774006</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.37662157382177</v>
+        <v>8.596281143832018</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.714402388200342</v>
+        <v>12.2593204211205</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94447380627169</v>
+        <v>19.17780667622644</v>
       </c>
       <c r="C6">
-        <v>11.87131844819001</v>
+        <v>9.318992067452998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.157430154536575</v>
+        <v>14.4019317230173</v>
       </c>
       <c r="F6">
-        <v>29.86015885615896</v>
+        <v>41.49219350076076</v>
       </c>
       <c r="G6">
-        <v>35.48725817393574</v>
+        <v>43.31924510415857</v>
       </c>
       <c r="H6">
-        <v>11.74409478161808</v>
+        <v>17.86096521619932</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.380697451303364</v>
+        <v>8.597498678761978</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.702936527170174</v>
+        <v>12.25845445920616</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43833842071538</v>
+        <v>19.31861872294413</v>
       </c>
       <c r="C7">
-        <v>12.07905055487173</v>
+        <v>9.408644158629281</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.161886108070263</v>
+        <v>14.39561330657002</v>
       </c>
       <c r="F7">
-        <v>30.07933783840637</v>
+        <v>41.47953430160437</v>
       </c>
       <c r="G7">
-        <v>35.81653960521054</v>
+        <v>43.31617932224619</v>
       </c>
       <c r="H7">
-        <v>11.75536660727976</v>
+        <v>17.84136536212236</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.352492691278263</v>
+        <v>8.589116109809213</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.78243427456048</v>
+        <v>12.26460315231061</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5929875441609</v>
+        <v>19.93642532277051</v>
       </c>
       <c r="C8">
-        <v>12.95830798771653</v>
+        <v>9.790741882753755</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.186845778048701</v>
+        <v>14.37043456444942</v>
       </c>
       <c r="F8">
-        <v>31.10033813677155</v>
+        <v>41.44963710892702</v>
       </c>
       <c r="G8">
-        <v>37.35949869672516</v>
+        <v>43.34165974459078</v>
       </c>
       <c r="H8">
-        <v>11.83404469868425</v>
+        <v>17.76452409253688</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.230005417223116</v>
+        <v>8.553814173333526</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.13046468393334</v>
+        <v>12.29512534902488</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.46792788382852</v>
+        <v>21.12350790385494</v>
       </c>
       <c r="C9">
-        <v>14.54498736487138</v>
+        <v>10.48730447177641</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.255507362049363</v>
+        <v>14.33073407532871</v>
       </c>
       <c r="F9">
-        <v>33.29212652362998</v>
+        <v>41.4847198133956</v>
       </c>
       <c r="G9">
-        <v>40.70244131911517</v>
+        <v>43.53263632497294</v>
       </c>
       <c r="H9">
-        <v>12.10278499769938</v>
+        <v>17.64881838042121</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.995196096609738</v>
+        <v>8.490603528981712</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.797953166863</v>
+        <v>12.36691014012361</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.05601270702369</v>
+        <v>21.97119325000723</v>
       </c>
       <c r="C10">
-        <v>15.62629448848294</v>
+        <v>10.96376968828047</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.31866205532522</v>
+        <v>14.30742822275552</v>
       </c>
       <c r="F10">
-        <v>35.0151365277682</v>
+        <v>41.5678193016087</v>
       </c>
       <c r="G10">
-        <v>43.34751527194899</v>
+        <v>43.75916525347935</v>
       </c>
       <c r="H10">
-        <v>12.37939746375066</v>
+        <v>17.5853990621897</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.82414365347873</v>
+        <v>8.4477801303261</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.27561291969363</v>
+        <v>12.42668354882264</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.17955947293792</v>
+        <v>22.34969097102511</v>
       </c>
       <c r="C11">
-        <v>16.10017517437531</v>
+        <v>11.172304923236</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.350318990326853</v>
+        <v>14.29809094554957</v>
       </c>
       <c r="F11">
-        <v>35.82320421104485</v>
+        <v>41.61806911086443</v>
       </c>
       <c r="G11">
-        <v>44.59170774410423</v>
+        <v>43.88087623935489</v>
       </c>
       <c r="H11">
-        <v>12.52441395007974</v>
+        <v>17.56128930507191</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.746184926011671</v>
+        <v>8.429073373950247</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.4895875127373</v>
+        <v>12.45534742876998</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.59749816594182</v>
+        <v>22.49185697068112</v>
       </c>
       <c r="C12">
-        <v>16.27708028083354</v>
+        <v>11.25005121939262</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.362742822021763</v>
+        <v>14.29473636896379</v>
       </c>
       <c r="F12">
-        <v>36.13270442437472</v>
+        <v>41.6388834238884</v>
       </c>
       <c r="G12">
-        <v>45.06880321037136</v>
+        <v>43.9296339801487</v>
       </c>
       <c r="H12">
-        <v>12.58225008116174</v>
+        <v>17.55284525009214</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.716599617062042</v>
+        <v>8.422100066046681</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.570104411506357</v>
+        <v>12.46640834573008</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.50781866421134</v>
+        <v>22.46129279908073</v>
       </c>
       <c r="C13">
-        <v>16.23909276375672</v>
+        <v>11.23336208750144</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.360047477498265</v>
+        <v>14.29545078582808</v>
       </c>
       <c r="F13">
-        <v>36.06589156978781</v>
+        <v>41.63432135430851</v>
       </c>
       <c r="G13">
-        <v>44.96578581293581</v>
+        <v>43.91901474995295</v>
       </c>
       <c r="H13">
-        <v>12.56966147456408</v>
+        <v>17.55463326354338</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.722974929957615</v>
+        <v>8.423596988363313</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.55278679505771</v>
+        <v>12.46401707958808</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.21409305931593</v>
+        <v>22.3614111178346</v>
       </c>
       <c r="C14">
-        <v>16.11477989836803</v>
+        <v>11.17872585453057</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.351332275584438</v>
+        <v>14.29781133356721</v>
       </c>
       <c r="F14">
-        <v>35.84859655604469</v>
+        <v>41.61974575828896</v>
       </c>
       <c r="G14">
-        <v>44.63083884700946</v>
+        <v>43.88483419542307</v>
       </c>
       <c r="H14">
-        <v>12.52911266843998</v>
+        <v>17.56058084021267</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.743752472574886</v>
+        <v>8.4284974646629</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.496222077126287</v>
+        <v>12.45625330868088</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.03320436598966</v>
+        <v>22.30007531759146</v>
       </c>
       <c r="C15">
-        <v>16.03830518862526</v>
+        <v>11.14509938417423</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.346051221988064</v>
+        <v>14.29928082275383</v>
       </c>
       <c r="F15">
-        <v>35.71595433495467</v>
+        <v>41.61105018875713</v>
       </c>
       <c r="G15">
-        <v>44.4264518242381</v>
+        <v>43.86424458194688</v>
       </c>
       <c r="H15">
-        <v>12.50466070443753</v>
+        <v>17.56431333277711</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.756469615919647</v>
+        <v>8.431513520856246</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.461507227552099</v>
+        <v>12.4515245118281</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.98152150377734</v>
+        <v>21.94630213908506</v>
       </c>
       <c r="C16">
-        <v>15.59496640407921</v>
+        <v>10.94997260214064</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.316653361874597</v>
+        <v>14.30806383219653</v>
       </c>
       <c r="F16">
-        <v>34.96281586434489</v>
+        <v>41.56478553036126</v>
       </c>
       <c r="G16">
-        <v>43.26703139370994</v>
+        <v>43.75158551579336</v>
       </c>
       <c r="H16">
-        <v>12.3703201981119</v>
+        <v>17.58707043462897</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.829231934315697</v>
+        <v>8.44901816882494</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.261559327691577</v>
+        <v>12.42483948743832</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.32271580518622</v>
+        <v>21.72734799007139</v>
       </c>
       <c r="C17">
-        <v>15.31840657904784</v>
+        <v>10.82813508254978</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.299378778639118</v>
+        <v>14.31377540486571</v>
       </c>
       <c r="F17">
-        <v>34.50700114787569</v>
+        <v>41.53958951302161</v>
       </c>
       <c r="G17">
-        <v>42.56626683767423</v>
+        <v>43.68724362582454</v>
       </c>
       <c r="H17">
-        <v>12.29293538406671</v>
+        <v>17.60224824873983</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.873802757141663</v>
+        <v>8.459954370585686</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.138021210457374</v>
+        <v>12.40884261150236</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.93871189911235</v>
+        <v>21.60074895222347</v>
       </c>
       <c r="C18">
-        <v>15.15763738305312</v>
+        <v>10.75728660989987</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.289717465303859</v>
+        <v>14.31717962435292</v>
       </c>
       <c r="F18">
-        <v>34.24710922449586</v>
+        <v>41.52626942925781</v>
       </c>
       <c r="G18">
-        <v>42.16705057055661</v>
+        <v>43.65199368394654</v>
       </c>
       <c r="H18">
-        <v>12.25022158465076</v>
+        <v>17.6114240411002</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.899427813985049</v>
+        <v>8.466317464530178</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.066654678938992</v>
+        <v>12.39978057203806</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.80781682370114</v>
+        <v>21.55777534583965</v>
       </c>
       <c r="C19">
-        <v>15.1029107227558</v>
+        <v>10.7331674749486</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.286493034319179</v>
+        <v>14.31835270411683</v>
       </c>
       <c r="F19">
-        <v>34.15950621979506</v>
+        <v>41.52196085913195</v>
       </c>
       <c r="G19">
-        <v>42.03254264905713</v>
+        <v>43.6403609322473</v>
       </c>
       <c r="H19">
-        <v>12.23606294594275</v>
+        <v>17.61460726227231</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.908103376935976</v>
+        <v>8.468484438578775</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.042439043801043</v>
+        <v>12.39673634051703</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.39337071207465</v>
+        <v>21.75072563235409</v>
       </c>
       <c r="C20">
-        <v>15.34802243667759</v>
+        <v>10.8411849743318</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.301189166437021</v>
+        <v>14.31315507889511</v>
       </c>
       <c r="F20">
-        <v>34.55528739461654</v>
+        <v>41.54215039781374</v>
       </c>
       <c r="G20">
-        <v>42.64046630424145</v>
+        <v>43.69391109492905</v>
       </c>
       <c r="H20">
-        <v>12.30098608875402</v>
+        <v>17.60058636322892</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.869059541151682</v>
+        <v>8.458782655849891</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.151204486489915</v>
+        <v>12.41053116373054</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.30056981630787</v>
+        <v>22.39078140437362</v>
       </c>
       <c r="C21">
-        <v>16.15136215553962</v>
+        <v>11.19480729227196</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.353880179677683</v>
+        <v>14.29711306937401</v>
       </c>
       <c r="F21">
-        <v>35.9123259936656</v>
+        <v>41.62397854183885</v>
       </c>
       <c r="G21">
-        <v>44.72905859660848</v>
+        <v>43.89480158092066</v>
       </c>
       <c r="H21">
-        <v>12.54094223397809</v>
+        <v>17.55881524845011</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.737651710450163</v>
+        <v>8.427055081988165</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.512850582434009</v>
+        <v>12.45852815406213</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.50329089022917</v>
+        <v>22.80225982451904</v>
       </c>
       <c r="C22">
-        <v>16.66160253540074</v>
+        <v>11.41878458564978</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.390866581337637</v>
+        <v>14.28768484979392</v>
       </c>
       <c r="F22">
-        <v>36.81968282794817</v>
+        <v>41.68786350973548</v>
       </c>
       <c r="G22">
-        <v>46.12882850962154</v>
+        <v>44.04163780703306</v>
       </c>
       <c r="H22">
-        <v>12.7148745612202</v>
+        <v>17.53551448843161</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.651372122232133</v>
+        <v>8.406963217681639</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.746222608800565</v>
+        <v>12.49109819021971</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.86530379814468</v>
+        <v>22.58331463902079</v>
       </c>
       <c r="C23">
-        <v>16.3906103844859</v>
+        <v>11.29990883237233</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.370887523917988</v>
+        <v>14.29262043302444</v>
       </c>
       <c r="F23">
-        <v>36.3335219986544</v>
+        <v>41.65281672395693</v>
       </c>
       <c r="G23">
-        <v>45.378522286084</v>
+        <v>43.96185284483978</v>
       </c>
       <c r="H23">
-        <v>12.62042361829614</v>
+        <v>17.54758330075141</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.697473058280175</v>
+        <v>8.417627947180879</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.621949122384821</v>
+        <v>12.47360681985313</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.36144398983949</v>
+        <v>21.74015883028329</v>
       </c>
       <c r="C24">
-        <v>15.33463862784706</v>
+        <v>10.83528761466343</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.300369850005445</v>
+        <v>14.31343515270628</v>
       </c>
       <c r="F24">
-        <v>34.53345044865472</v>
+        <v>41.54098899126991</v>
       </c>
       <c r="G24">
-        <v>42.60690932054798</v>
+        <v>43.69089130781813</v>
       </c>
       <c r="H24">
-        <v>12.29734084635119</v>
+        <v>17.60133630067344</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.871203943744818</v>
+        <v>8.459312152135858</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.145245392507444</v>
+        <v>12.40976734907143</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.46585317267816</v>
+        <v>20.80601250569521</v>
       </c>
       <c r="C25">
-        <v>14.13061062503794</v>
+        <v>10.30485840935989</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.23475333513319</v>
+        <v>14.34044203332389</v>
       </c>
       <c r="F25">
-        <v>32.67922863999465</v>
+        <v>41.46516810436637</v>
       </c>
       <c r="G25">
-        <v>39.7646633996044</v>
+        <v>43.46582733582503</v>
       </c>
       <c r="H25">
-        <v>12.01685348620138</v>
+        <v>17.67634697630739</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.058318578783391</v>
+        <v>8.507064797010335</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.619394331220089</v>
+        <v>12.34623704186154</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.10254410228201</v>
+        <v>24.15909908622481</v>
       </c>
       <c r="C2">
-        <v>9.890833230244272</v>
+        <v>13.18730370155083</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.36426845683459</v>
+        <v>8.194918690605519</v>
       </c>
       <c r="F2">
-        <v>41.44786610073778</v>
+        <v>31.38993374092111</v>
       </c>
       <c r="G2">
-        <v>43.35808356879687</v>
+        <v>37.79922794052782</v>
       </c>
       <c r="H2">
-        <v>17.74606095788246</v>
+        <v>11.86275451317996</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.544658145475138</v>
+        <v>5.197243561878762</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.30421110837015</v>
+        <v>8.22390418752836</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.61917466871718</v>
+        <v>22.48359725508528</v>
       </c>
       <c r="C3">
-        <v>9.596634703073315</v>
+        <v>12.51276095926937</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.38288654230258</v>
+        <v>8.17298325688016</v>
       </c>
       <c r="F3">
-        <v>41.46010470586681</v>
+        <v>30.56451708191678</v>
       </c>
       <c r="G3">
-        <v>43.32113652590436</v>
+        <v>36.54812541559401</v>
       </c>
       <c r="H3">
-        <v>17.80225474590215</v>
+        <v>11.78791788285141</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.571670516551224</v>
+        <v>5.292715578078349</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.2787717290679</v>
+        <v>7.951875963648293</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.32026502154306</v>
+        <v>21.44405998067664</v>
       </c>
       <c r="C4">
-        <v>9.409686018749261</v>
+        <v>12.08146102623074</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.39554085439247</v>
+        <v>8.161941115221492</v>
       </c>
       <c r="F4">
-        <v>41.47940035484071</v>
+        <v>30.08193208920992</v>
       </c>
       <c r="G4">
-        <v>43.31616473455267</v>
+        <v>35.8204420071068</v>
       </c>
       <c r="H4">
-        <v>17.84114128464582</v>
+        <v>11.75551383220441</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.589018950022027</v>
+        <v>5.352163815582216</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.26467696493445</v>
+        <v>7.783363244098074</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.19810666058401</v>
+        <v>21.01623310401632</v>
       </c>
       <c r="C5">
-        <v>9.331984054616353</v>
+        <v>11.90146110292879</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.40100566945615</v>
+        <v>8.158041676578616</v>
       </c>
       <c r="F5">
-        <v>41.49021884706757</v>
+        <v>29.89142062515732</v>
       </c>
       <c r="G5">
-        <v>43.31857704508758</v>
+        <v>35.53417132835322</v>
       </c>
       <c r="H5">
-        <v>17.85808548774006</v>
+        <v>11.7455566748425</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.596281143832018</v>
+        <v>5.37662157382177</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.2593204211205</v>
+        <v>7.714402388200357</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.17780667622644</v>
+        <v>20.94447380627167</v>
       </c>
       <c r="C6">
-        <v>9.318992067452998</v>
+        <v>11.87131844818984</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.4019317230173</v>
+        <v>8.157430154536627</v>
       </c>
       <c r="F6">
-        <v>41.49219350076076</v>
+        <v>29.860158856159</v>
       </c>
       <c r="G6">
-        <v>43.31924510415857</v>
+        <v>35.48725817393573</v>
       </c>
       <c r="H6">
-        <v>17.86096521619932</v>
+        <v>11.7440947816181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.597498678761978</v>
+        <v>5.380697451303464</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.25845445920616</v>
+        <v>7.702936527170275</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.31861872294413</v>
+        <v>21.4383384207154</v>
       </c>
       <c r="C7">
-        <v>9.408644158629281</v>
+        <v>12.07905055487173</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.39561330657002</v>
+        <v>8.161886108070378</v>
       </c>
       <c r="F7">
-        <v>41.47953430160437</v>
+        <v>30.0793378384064</v>
       </c>
       <c r="G7">
-        <v>43.31617932224619</v>
+        <v>35.81653960521061</v>
       </c>
       <c r="H7">
-        <v>17.84136536212236</v>
+        <v>11.75536660727977</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.589116109809213</v>
+        <v>5.352492691278262</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.26460315231061</v>
+        <v>7.782434274560522</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.93642532277051</v>
+        <v>23.59298754416092</v>
       </c>
       <c r="C8">
-        <v>9.790741882753755</v>
+        <v>12.95830798771635</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.37043456444942</v>
+        <v>8.186845778048699</v>
       </c>
       <c r="F8">
-        <v>41.44963710892702</v>
+        <v>31.10033813677146</v>
       </c>
       <c r="G8">
-        <v>43.34165974459078</v>
+        <v>37.3594986967251</v>
       </c>
       <c r="H8">
-        <v>17.76452409253688</v>
+        <v>11.8340446986842</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.553814173333526</v>
+        <v>5.230005417223083</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.29512534902488</v>
+        <v>8.130464683933392</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.12350790385494</v>
+        <v>27.46792788382856</v>
       </c>
       <c r="C9">
-        <v>10.48730447177641</v>
+        <v>14.5449873648711</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.33073407532871</v>
+        <v>8.255507362049322</v>
       </c>
       <c r="F9">
-        <v>41.4847198133956</v>
+        <v>33.29212652362994</v>
       </c>
       <c r="G9">
-        <v>43.53263632497294</v>
+        <v>40.70244131911512</v>
       </c>
       <c r="H9">
-        <v>17.64881838042121</v>
+        <v>12.10278499769934</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.490603528981712</v>
+        <v>4.995196096609601</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.36691014012361</v>
+        <v>8.79795316686301</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.97119325000723</v>
+        <v>30.0560127070237</v>
       </c>
       <c r="C10">
-        <v>10.96376968828047</v>
+        <v>15.62629448848302</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.30742822275552</v>
+        <v>8.318662055325332</v>
       </c>
       <c r="F10">
-        <v>41.5678193016087</v>
+        <v>35.01513652776817</v>
       </c>
       <c r="G10">
-        <v>43.75916525347935</v>
+        <v>43.34751527194891</v>
       </c>
       <c r="H10">
-        <v>17.5853990621897</v>
+        <v>12.3793974637506</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.4477801303261</v>
+        <v>4.824143653478695</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.42668354882264</v>
+        <v>9.275612919693616</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.34969097102511</v>
+        <v>31.17955947293785</v>
       </c>
       <c r="C11">
-        <v>11.172304923236</v>
+        <v>16.10017517437539</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.29809094554957</v>
+        <v>8.350318990326857</v>
       </c>
       <c r="F11">
-        <v>41.61806911086443</v>
+        <v>35.82320421104492</v>
       </c>
       <c r="G11">
-        <v>43.88087623935489</v>
+        <v>44.59170774410427</v>
       </c>
       <c r="H11">
-        <v>17.56128930507191</v>
+        <v>12.5244139500798</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.429073373950247</v>
+        <v>4.746184926011671</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.45534742876998</v>
+        <v>9.489587512737279</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.49185697068112</v>
+        <v>31.59749816594185</v>
       </c>
       <c r="C12">
-        <v>11.25005121939262</v>
+        <v>16.27708028083365</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.29473636896379</v>
+        <v>8.36274282202182</v>
       </c>
       <c r="F12">
-        <v>41.6388834238884</v>
+        <v>36.13270442437461</v>
       </c>
       <c r="G12">
-        <v>43.9296339801487</v>
+        <v>45.06880321037121</v>
       </c>
       <c r="H12">
-        <v>17.55284525009214</v>
+        <v>12.58225008116167</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.422100066046681</v>
+        <v>4.716599617062077</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.46640834573008</v>
+        <v>9.570104411506346</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.46129279908073</v>
+        <v>31.50781866421138</v>
       </c>
       <c r="C13">
-        <v>11.23336208750144</v>
+        <v>16.23909276375671</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.29545078582808</v>
+        <v>8.360047477498274</v>
       </c>
       <c r="F13">
-        <v>41.63432135430851</v>
+        <v>36.06589156978778</v>
       </c>
       <c r="G13">
-        <v>43.91901474995295</v>
+        <v>44.96578581293567</v>
       </c>
       <c r="H13">
-        <v>17.55463326354338</v>
+        <v>12.56966147456404</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.423596988363313</v>
+        <v>4.722974929957579</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.46401707958808</v>
+        <v>9.552786795057756</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.3614111178346</v>
+        <v>31.21409305931593</v>
       </c>
       <c r="C14">
-        <v>11.17872585453057</v>
+        <v>16.11477989836805</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.29781133356721</v>
+        <v>8.351332275584491</v>
       </c>
       <c r="F14">
-        <v>41.61974575828896</v>
+        <v>35.84859655604472</v>
       </c>
       <c r="G14">
-        <v>43.88483419542307</v>
+        <v>44.63083884700947</v>
       </c>
       <c r="H14">
-        <v>17.56058084021267</v>
+        <v>12.52911266843998</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.4284974646629</v>
+        <v>4.743752472574886</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.45625330868088</v>
+        <v>9.4962220771263</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.30007531759146</v>
+        <v>31.03320436598964</v>
       </c>
       <c r="C15">
-        <v>11.14509938417423</v>
+        <v>16.03830518862534</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.29928082275383</v>
+        <v>8.346051221988168</v>
       </c>
       <c r="F15">
-        <v>41.61105018875713</v>
+        <v>35.71595433495466</v>
       </c>
       <c r="G15">
-        <v>43.86424458194688</v>
+        <v>44.42645182423815</v>
       </c>
       <c r="H15">
-        <v>17.56431333277711</v>
+        <v>12.50466070443749</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.431513520856246</v>
+        <v>4.756469615919714</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.4515245118281</v>
+        <v>9.461507227552117</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.94630213908506</v>
+        <v>29.98152150377727</v>
       </c>
       <c r="C16">
-        <v>10.94997260214064</v>
+        <v>15.59496640407918</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.30806383219653</v>
+        <v>8.31665336187471</v>
       </c>
       <c r="F16">
-        <v>41.56478553036126</v>
+        <v>34.96281586434501</v>
       </c>
       <c r="G16">
-        <v>43.75158551579336</v>
+        <v>43.26703139370998</v>
       </c>
       <c r="H16">
-        <v>17.58707043462897</v>
+        <v>12.37032019811198</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.44901816882494</v>
+        <v>4.829231934315632</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.42483948743832</v>
+        <v>9.261559327691609</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.72734799007139</v>
+        <v>29.32271580518622</v>
       </c>
       <c r="C17">
-        <v>10.82813508254978</v>
+        <v>15.31840657904792</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.31377540486571</v>
+        <v>8.29937877863911</v>
       </c>
       <c r="F17">
-        <v>41.53958951302161</v>
+        <v>34.50700114787571</v>
       </c>
       <c r="G17">
-        <v>43.68724362582454</v>
+        <v>42.56626683767426</v>
       </c>
       <c r="H17">
-        <v>17.60224824873983</v>
+        <v>12.29293538406673</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.459954370585686</v>
+        <v>4.87380275714163</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.40884261150236</v>
+        <v>9.138021210457351</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.60074895222347</v>
+        <v>28.9387118991124</v>
       </c>
       <c r="C18">
-        <v>10.75728660989987</v>
+        <v>15.15763738305305</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.31717962435292</v>
+        <v>8.289717465303923</v>
       </c>
       <c r="F18">
-        <v>41.52626942925781</v>
+        <v>34.24710922449577</v>
       </c>
       <c r="G18">
-        <v>43.65199368394654</v>
+        <v>42.16705057055647</v>
       </c>
       <c r="H18">
-        <v>17.6114240411002</v>
+        <v>12.25022158465072</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.466317464530178</v>
+        <v>4.899427813985116</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.39978057203806</v>
+        <v>9.066654678939047</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.55777534583965</v>
+        <v>28.80781682370112</v>
       </c>
       <c r="C19">
-        <v>10.7331674749486</v>
+        <v>15.10291072275607</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.31835270411683</v>
+        <v>8.286493034319236</v>
       </c>
       <c r="F19">
-        <v>41.52196085913195</v>
+        <v>34.15950621979508</v>
       </c>
       <c r="G19">
-        <v>43.6403609322473</v>
+        <v>42.03254264905715</v>
       </c>
       <c r="H19">
-        <v>17.61460726227231</v>
+        <v>12.23606294594277</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.468484438578775</v>
+        <v>4.908103376936078</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.39673634051703</v>
+        <v>9.042439043801037</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.75072563235409</v>
+        <v>29.39337071207462</v>
       </c>
       <c r="C20">
-        <v>10.8411849743318</v>
+        <v>15.34802243667759</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.31315507889511</v>
+        <v>8.301189166437025</v>
       </c>
       <c r="F20">
-        <v>41.54215039781374</v>
+        <v>34.55528739461659</v>
       </c>
       <c r="G20">
-        <v>43.69391109492905</v>
+        <v>42.64046630424148</v>
       </c>
       <c r="H20">
-        <v>17.60058636322892</v>
+        <v>12.30098608875409</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.458782655849891</v>
+        <v>4.869059541151715</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.41053116373054</v>
+        <v>9.151204486489934</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.39078140437362</v>
+        <v>31.30056981630791</v>
       </c>
       <c r="C21">
-        <v>11.19480729227196</v>
+        <v>16.15136215553954</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.29711306937401</v>
+        <v>8.35388017967778</v>
       </c>
       <c r="F21">
-        <v>41.62397854183885</v>
+        <v>35.91232599366561</v>
       </c>
       <c r="G21">
-        <v>43.89480158092066</v>
+        <v>44.72905859660853</v>
       </c>
       <c r="H21">
-        <v>17.55881524845011</v>
+        <v>12.54094223397806</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.427055081988165</v>
+        <v>4.737651710450163</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.45852815406213</v>
+        <v>9.512850582434067</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.80225982451904</v>
+        <v>32.50329089022917</v>
       </c>
       <c r="C22">
-        <v>11.41878458564978</v>
+        <v>16.66160253540101</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.28768484979392</v>
+        <v>8.390866581337637</v>
       </c>
       <c r="F22">
-        <v>41.68786350973548</v>
+        <v>36.81968282794811</v>
       </c>
       <c r="G22">
-        <v>44.04163780703306</v>
+        <v>46.12882850962149</v>
       </c>
       <c r="H22">
-        <v>17.53551448843161</v>
+        <v>12.71487456122014</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.406963217681639</v>
+        <v>4.651372122232099</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.49109819021971</v>
+        <v>9.74622260880054</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.58331463902079</v>
+        <v>31.86530379814472</v>
       </c>
       <c r="C23">
-        <v>11.29990883237233</v>
+        <v>16.39061038448584</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.29262043302444</v>
+        <v>8.370887523917986</v>
       </c>
       <c r="F23">
-        <v>41.65281672395693</v>
+        <v>36.33352199865435</v>
       </c>
       <c r="G23">
-        <v>43.96185284483978</v>
+        <v>45.37852228608394</v>
       </c>
       <c r="H23">
-        <v>17.54758330075141</v>
+        <v>12.62042361829612</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.417627947180879</v>
+        <v>4.697473058280243</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.47360681985313</v>
+        <v>9.621949122384821</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.74015883028329</v>
+        <v>29.36144398983953</v>
       </c>
       <c r="C24">
-        <v>10.83528761466343</v>
+        <v>15.33463862784704</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.31343515270628</v>
+        <v>8.300369850005501</v>
       </c>
       <c r="F24">
-        <v>41.54098899126991</v>
+        <v>34.53345044865478</v>
       </c>
       <c r="G24">
-        <v>43.69089130781813</v>
+        <v>42.60690932054811</v>
       </c>
       <c r="H24">
-        <v>17.60133630067344</v>
+        <v>12.29734084635118</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.459312152135858</v>
+        <v>4.871203943744751</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.40976734907143</v>
+        <v>9.145245392507471</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.80601250569521</v>
+        <v>26.46585317267814</v>
       </c>
       <c r="C25">
-        <v>10.30485840935989</v>
+        <v>14.13061062503791</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.34044203332389</v>
+        <v>8.234753335133135</v>
       </c>
       <c r="F25">
-        <v>41.46516810436637</v>
+        <v>32.67922863999466</v>
       </c>
       <c r="G25">
-        <v>43.46582733582503</v>
+        <v>39.76466339960435</v>
       </c>
       <c r="H25">
-        <v>17.67634697630739</v>
+        <v>12.01685348620147</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.507064797010335</v>
+        <v>5.058318578783394</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.34623704186154</v>
+        <v>8.619394331220054</v>
       </c>
       <c r="M25">
         <v>0</v>
